--- a/data/MisInfoText/Analysis_output/social_media/MisInfoText_social_media_named_entities_frequency.xlsx
+++ b/data/MisInfoText/Analysis_output/social_media/MisInfoText_social_media_named_entities_frequency.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Entity</t>
   </si>
   <si>
+    <t>tag</t>
+  </si>
+  <si>
     <t>Wikidata_id</t>
   </si>
   <si>
@@ -59,6 +62,15 @@
   </si>
   <si>
     <t>National Aeronautics and Space Administration</t>
+  </si>
+  <si>
+    <t>PERSON</t>
+  </si>
+  <si>
+    <t>GPE</t>
+  </si>
+  <si>
+    <t>ORG</t>
   </si>
   <si>
     <t>https://www.wikidata.org/wiki/Q2622432</t>
@@ -480,13 +492,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,189 +514,207 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
         <v>2622432</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>159</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1932</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>275816</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>610190</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>1007767</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>643962</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>48525</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>159</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>1932</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>275816</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C11">
+        <v>23548</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>610190</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>1007767</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>643962</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>48525</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>23548</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11">
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/MisInfoText/Analysis_output/social_media/MisInfoText_social_media_named_entities_frequency.xlsx
+++ b/data/MisInfoText/Analysis_output/social_media/MisInfoText_social_media_named_entities_frequency.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="132">
   <si>
     <t>Entity</t>
   </si>
@@ -34,21 +34,96 @@
     <t>Count</t>
   </si>
   <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>mathematical proof</t>
+  </si>
+  <si>
+    <t>landing</t>
+  </si>
+  <si>
+    <t>engineer</t>
+  </si>
+  <si>
+    <t>hoax</t>
+  </si>
+  <si>
+    <t>Moon landing</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>official</t>
+  </si>
+  <si>
+    <t>petition</t>
+  </si>
+  <si>
+    <t>Chinese space program</t>
+  </si>
+  <si>
+    <t>government</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
     <t>Yury Mukhin</t>
   </si>
   <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>Space Race</t>
+  </si>
+  <si>
+    <t>agent</t>
+  </si>
+  <si>
+    <t>Early 1970</t>
+  </si>
+  <si>
+    <t>Situation</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>conspiracy</t>
+  </si>
+  <si>
     <t>Russia</t>
   </si>
   <si>
-    <t>Space Race</t>
-  </si>
-  <si>
-    <t>United States of America</t>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>decade</t>
+  </si>
+  <si>
+    <t>audience</t>
   </si>
   <si>
     <t>Lunar Roving Vehicle</t>
   </si>
   <si>
+    <t>letter case</t>
+  </si>
+  <si>
+    <t>trace</t>
+  </si>
+  <si>
+    <t>scandal</t>
+  </si>
+  <si>
+    <t>natural satellite</t>
+  </si>
+  <si>
     <t>Daily Express</t>
   </si>
   <si>
@@ -58,36 +133,156 @@
     <t>rover</t>
   </si>
   <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>photograph</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>explanation</t>
+  </si>
+  <si>
+    <t>outer space</t>
+  </si>
+  <si>
     <t>Federal Government of the United States of America</t>
   </si>
   <si>
+    <t>liberation</t>
+  </si>
+  <si>
     <t>National Aeronautics and Space Administration</t>
   </si>
   <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>speculation</t>
+  </si>
+  <si>
+    <t>Evidence</t>
+  </si>
+  <si>
+    <t>intention</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>The Post</t>
+  </si>
+  <si>
     <t>PERSON</t>
   </si>
   <si>
+    <t>DATE</t>
+  </si>
+  <si>
     <t>GPE</t>
   </si>
   <si>
     <t>ORG</t>
   </si>
   <si>
+    <t>CARDINAL</t>
+  </si>
+  <si>
+    <t>NORP</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q405</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q11538</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q844947</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q81096</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q190084</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q495307</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q836925</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q716711</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q697279</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q162304</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q7188</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q643572</t>
+  </si>
+  <si>
     <t>https://www.wikidata.org/wiki/Q2622432</t>
   </si>
   <si>
+    <t>https://www.wikidata.org/wiki/Q11563</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q1932</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q392648</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q5326571</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q2290680</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q30</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q930164</t>
+  </si>
+  <si>
     <t>https://www.wikidata.org/wiki/Q159</t>
   </si>
   <si>
-    <t>https://www.wikidata.org/wiki/Q1932</t>
-  </si>
-  <si>
-    <t>https://www.wikidata.org/wiki/Q30</t>
+    <t>https://www.wikidata.org/wiki/Q1371819</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q7949</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q39911</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q211198</t>
   </si>
   <si>
     <t>https://www.wikidata.org/wiki/Q275816</t>
   </si>
   <si>
+    <t>https://www.wikidata.org/wiki/Q8188561</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q321102</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q192909</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q2537</t>
+  </si>
+  <si>
     <t>https://www.wikidata.org/wiki/Q610190</t>
   </si>
   <si>
@@ -97,31 +292,124 @@
     <t>https://www.wikidata.org/wiki/Q643962</t>
   </si>
   <si>
+    <t>https://www.wikidata.org/wiki/Q43016</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q125191</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q7850</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q7958</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q4169</t>
+  </si>
+  <si>
     <t>https://www.wikidata.org/wiki/Q48525</t>
   </si>
   <si>
+    <t>https://www.wikidata.org/wiki/Q24238946</t>
+  </si>
+  <si>
     <t>https://www.wikidata.org/wiki/Q23548</t>
   </si>
   <si>
+    <t>https://www.wikidata.org/wiki/Q5375780</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q107885</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q1237694</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q706622</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q16502</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q30203425</t>
+  </si>
+  <si>
+    <t>proof</t>
+  </si>
+  <si>
+    <t>moon landings</t>
+  </si>
+  <si>
+    <t>claims</t>
+  </si>
+  <si>
+    <t>officials</t>
+  </si>
+  <si>
     <t>Yury Ignatyevich Mukhin</t>
   </si>
   <si>
+    <t>numbers</t>
+  </si>
+  <si>
     <t>space race</t>
   </si>
   <si>
+    <t>agents</t>
+  </si>
+  <si>
+    <t>early 1970s</t>
+  </si>
+  <si>
+    <t>situation</t>
+  </si>
+  <si>
     <t>USA</t>
   </si>
   <si>
+    <t>decades</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
     <t>Lunar Rover</t>
   </si>
   <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>moon</t>
+  </si>
+  <si>
     <t>moon rover</t>
   </si>
   <si>
+    <t>thousands</t>
+  </si>
+  <si>
+    <t>photos</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
     <t>US government</t>
   </si>
   <si>
+    <t>release</t>
+  </si>
+  <si>
     <t>NASA</t>
+  </si>
+  <si>
+    <t>speculations</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>Post</t>
   </si>
 </sst>
 </file>
@@ -492,7 +780,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,40 +810,34 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
       <c r="C2">
-        <v>2622432</v>
+        <v>405</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
       <c r="C3">
-        <v>159</v>
+        <v>11538</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -563,36 +845,33 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>1932</v>
+        <v>844947</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
       <c r="C5">
-        <v>30</v>
+        <v>81096</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -600,36 +879,33 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>275816</v>
+        <v>190084</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
       <c r="C7">
-        <v>610190</v>
+        <v>495307</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -637,16 +913,16 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>1007767</v>
+        <v>836925</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -654,16 +930,16 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>643962</v>
+        <v>716711</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -671,35 +947,688 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>48525</v>
+        <v>697279</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11">
+        <v>162304</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>7188</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>643572</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="C11">
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
+        <v>2622432</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>11563</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>1932</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>392648</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18">
+        <v>5326571</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>2290680</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>930164</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22">
+        <v>159</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>1371819</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>7949</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25">
+        <v>39911</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>211198</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>275816</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>8188561</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>321102</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>192909</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <v>2537</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32">
+        <v>610190</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33">
+        <v>1007767</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34">
+        <v>643962</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35">
+        <v>43016</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>125191</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37">
+        <v>7850</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38">
+        <v>7958</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39">
+        <v>4169</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40">
+        <v>48525</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41">
+        <v>24238946</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" t="s">
+        <v>127</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42">
         <v>23548</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11">
+      <c r="D42" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43">
+        <v>5375780</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44">
+        <v>107885</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45">
+        <v>1237694</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46">
+        <v>706622</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" t="s">
+        <v>130</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47">
+        <v>16502</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48">
+        <v>30203425</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" t="s">
+        <v>131</v>
+      </c>
+      <c r="F48">
         <v>1</v>
       </c>
     </row>
@@ -715,6 +1644,43 @@
     <hyperlink ref="D9" r:id="rId8"/>
     <hyperlink ref="D10" r:id="rId9"/>
     <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
